--- a/CASOS_07112021.xlsx
+++ b/CASOS_07112021.xlsx
@@ -5,23 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPT\2024-I\Inteligencia de negocios\lab\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CROW\Desktop\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B12688A-5381-49A2-A267-22E855D76F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27B4D56-0941-4824-B94D-1ABCFA709700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS_07112021" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Dashboard de Crecimiento de la " sheetId="3" r:id="rId3"/>
+    <sheet name="Dashboard de Fecundidad y Natal" sheetId="4" r:id="rId4"/>
+    <sheet name="Dashboard de Mortalidad y Esper" sheetId="5" r:id="rId5"/>
+    <sheet name="Relación entre Densidad de Pobl" sheetId="6" r:id="rId6"/>
+    <sheet name="Natalidad y Mortalidad en la Co" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="105">
   <si>
     <t>Pais</t>
   </si>
@@ -348,7 +353,7 @@
     <numFmt numFmtId="166" formatCode="##0.00;\-##0.00;0"/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +501,21 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -888,7 +908,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -932,6 +952,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1924,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627E1C4D-7525-4CD4-ADDC-B26F3DA8C75E}">
   <dimension ref="A1:BM73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16313,5 +16339,3877 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A30B0DF-4049-4624-85C0-DCCFD0DEAB60}">
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection sqref="A1:B73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1950</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7678.9669999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1951</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7897.482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1952</v>
+      </c>
+      <c r="B4" s="5">
+        <v>8121.4589999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1953</v>
+      </c>
+      <c r="B5" s="5">
+        <v>8349.4660000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1954</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8583.3989999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1955</v>
+      </c>
+      <c r="B7" s="5">
+        <v>8825.8970000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1956</v>
+      </c>
+      <c r="B8" s="5">
+        <v>9077.0480000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1957</v>
+      </c>
+      <c r="B9" s="5">
+        <v>9336.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1958</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9602.5069999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1959</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9879.2060000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1960</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10172.207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1961</v>
+      </c>
+      <c r="B13" s="5">
+        <v>10478.096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1962</v>
+      </c>
+      <c r="B14" s="5">
+        <v>10792.093999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1963</v>
+      </c>
+      <c r="B15" s="5">
+        <v>11112.665000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1964</v>
+      </c>
+      <c r="B16" s="5">
+        <v>11442.300999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1965</v>
+      </c>
+      <c r="B17" s="5">
+        <v>11781.581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1966</v>
+      </c>
+      <c r="B18" s="5">
+        <v>12127.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1967</v>
+      </c>
+      <c r="B19" s="5">
+        <v>12481.626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1968</v>
+      </c>
+      <c r="B20" s="5">
+        <v>12843.249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1969</v>
+      </c>
+      <c r="B21" s="5">
+        <v>13213.739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1970</v>
+      </c>
+      <c r="B22" s="5">
+        <v>13562.370999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1971</v>
+      </c>
+      <c r="B23" s="5">
+        <v>13911.968000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1972</v>
+      </c>
+      <c r="B24" s="5">
+        <v>14292.437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>1973</v>
+      </c>
+      <c r="B25" s="5">
+        <v>14674.785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1974</v>
+      </c>
+      <c r="B26" s="5">
+        <v>15057.174999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1975</v>
+      </c>
+      <c r="B27" s="5">
+        <v>15441.496999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1976</v>
+      </c>
+      <c r="B28" s="5">
+        <v>15826.813</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>1977</v>
+      </c>
+      <c r="B29" s="5">
+        <v>16224.612999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>1978</v>
+      </c>
+      <c r="B30" s="5">
+        <v>16638.48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>1979</v>
+      </c>
+      <c r="B31" s="5">
+        <v>17059.185000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>1980</v>
+      </c>
+      <c r="B32" s="5">
+        <v>17492.405999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>1981</v>
+      </c>
+      <c r="B33" s="5">
+        <v>17932.344000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1982</v>
+      </c>
+      <c r="B34" s="5">
+        <v>18374.371999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>1983</v>
+      </c>
+      <c r="B35" s="5">
+        <v>18826.905999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>1984</v>
+      </c>
+      <c r="B36" s="5">
+        <v>19285.646000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>1985</v>
+      </c>
+      <c r="B37" s="5">
+        <v>19746.61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>1986</v>
+      </c>
+      <c r="B38" s="5">
+        <v>20208.437000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>1987</v>
+      </c>
+      <c r="B39" s="5">
+        <v>20671.36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>1988</v>
+      </c>
+      <c r="B40" s="5">
+        <v>21143.798999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>1989</v>
+      </c>
+      <c r="B41" s="5">
+        <v>21624.311000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>1990</v>
+      </c>
+      <c r="B42" s="5">
+        <v>22109.098999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>1991</v>
+      </c>
+      <c r="B43" s="5">
+        <v>22583.006000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>1992</v>
+      </c>
+      <c r="B44" s="5">
+        <v>23047.248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>1993</v>
+      </c>
+      <c r="B45" s="5">
+        <v>23513.882000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>1994</v>
+      </c>
+      <c r="B46" s="5">
+        <v>23983.258000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>1995</v>
+      </c>
+      <c r="B47" s="5">
+        <v>24449.055</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>1996</v>
+      </c>
+      <c r="B48" s="5">
+        <v>24907.304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>1997</v>
+      </c>
+      <c r="B49" s="5">
+        <v>25365.385999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>1998</v>
+      </c>
+      <c r="B50" s="5">
+        <v>25818.225999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>1999</v>
+      </c>
+      <c r="B51" s="5">
+        <v>26252.239000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B52" s="5">
+        <v>26654.438999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B53" s="5">
+        <v>27014.909</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B54" s="5">
+        <v>27334.503000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B55" s="5">
+        <v>27623.341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B56" s="5">
+        <v>27893.911</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B57" s="5">
+        <v>28147.267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B58" s="5">
+        <v>28381.078000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B59" s="5">
+        <v>28600.386999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B60" s="5">
+        <v>28806.185000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B61" s="5">
+        <v>29009.326000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B62" s="5">
+        <v>29229.572</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B63" s="5">
+        <v>29477.721000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B64" s="5">
+        <v>29749.589</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B65" s="5">
+        <v>30038.809000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B66" s="5">
+        <v>30353.951000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B67" s="5">
+        <v>30711.863000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B68" s="5">
+        <v>31132.778999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B69" s="5">
+        <v>31605.486000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B70" s="5">
+        <v>32203.944</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B71" s="5">
+        <v>32824.860999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B72" s="5">
+        <v>33304.756000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B73" s="5">
+        <v>33715.470999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68684D4-7FBD-46AE-A5FC-850DCA1F5BCA}">
+  <dimension ref="A1:D73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection sqref="A1:D73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>369.88299999999998</v>
+      </c>
+      <c r="B2" s="5">
+        <v>57.652999999999999</v>
+      </c>
+      <c r="C2" s="6">
+        <v>157.01499999999999</v>
+      </c>
+      <c r="D2" s="7">
+        <v>6.9390000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>380.036</v>
+      </c>
+      <c r="B3" s="5">
+        <v>58.987000000000002</v>
+      </c>
+      <c r="C3" s="6">
+        <v>156.34299999999999</v>
+      </c>
+      <c r="D3" s="7">
+        <v>6.9420000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>390.71899999999999</v>
+      </c>
+      <c r="B4" s="5">
+        <v>60.085000000000001</v>
+      </c>
+      <c r="C4" s="6">
+        <v>154.959</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6.9480000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>401.51299999999998</v>
+      </c>
+      <c r="B5" s="5">
+        <v>61.094000000000001</v>
+      </c>
+      <c r="C5" s="6">
+        <v>153.32</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6.9530000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>411.89499999999998</v>
+      </c>
+      <c r="B6" s="5">
+        <v>61.918999999999997</v>
+      </c>
+      <c r="C6" s="6">
+        <v>151.416</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6.9569999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>422.74299999999999</v>
+      </c>
+      <c r="B7" s="5">
+        <v>62.628999999999998</v>
+      </c>
+      <c r="C7" s="6">
+        <v>149.251</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>433.798</v>
+      </c>
+      <c r="B8" s="5">
+        <v>63.222999999999999</v>
+      </c>
+      <c r="C8" s="6">
+        <v>146.83099999999999</v>
+      </c>
+      <c r="D8" s="7">
+        <v>6.9619999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>444.61099999999999</v>
+      </c>
+      <c r="B9" s="5">
+        <v>63.642000000000003</v>
+      </c>
+      <c r="C9" s="6">
+        <v>144.16999999999999</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6.9619999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>455.81</v>
+      </c>
+      <c r="B10" s="5">
+        <v>63.939</v>
+      </c>
+      <c r="C10" s="6">
+        <v>141.30600000000001</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6.9589999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>465.983</v>
+      </c>
+      <c r="B11" s="5">
+        <v>64.016999999999996</v>
+      </c>
+      <c r="C11" s="6">
+        <v>138.29</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6.9530000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>477.05200000000002</v>
+      </c>
+      <c r="B12" s="5">
+        <v>64.063999999999993</v>
+      </c>
+      <c r="C12" s="6">
+        <v>135.227</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6.9409999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>488.32499999999999</v>
+      </c>
+      <c r="B13" s="5">
+        <v>64.096999999999994</v>
+      </c>
+      <c r="C13" s="6">
+        <v>132.167</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6.923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>498.964</v>
+      </c>
+      <c r="B14" s="5">
+        <v>64.245000000000005</v>
+      </c>
+      <c r="C14" s="6">
+        <v>129.56299999999999</v>
+      </c>
+      <c r="D14" s="7">
+        <v>6.8949999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>509.07299999999998</v>
+      </c>
+      <c r="B15" s="5">
+        <v>63.993000000000002</v>
+      </c>
+      <c r="C15" s="6">
+        <v>126.459</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6.8579999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>519.63400000000001</v>
+      </c>
+      <c r="B16" s="5">
+        <v>63.978000000000002</v>
+      </c>
+      <c r="C16" s="6">
+        <v>123.866</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>529.46699999999998</v>
+      </c>
+      <c r="B17" s="5">
+        <v>63.938000000000002</v>
+      </c>
+      <c r="C17" s="6">
+        <v>121.42100000000001</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>539.19500000000005</v>
+      </c>
+      <c r="B18" s="5">
+        <v>63.765999999999998</v>
+      </c>
+      <c r="C18" s="6">
+        <v>118.893</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>549.41300000000001</v>
+      </c>
+      <c r="B19" s="5">
+        <v>63.512</v>
+      </c>
+      <c r="C19" s="6">
+        <v>116.245</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>557.72299999999996</v>
+      </c>
+      <c r="B20" s="5">
+        <v>62.945</v>
+      </c>
+      <c r="C20" s="6">
+        <v>113.36799999999999</v>
+      </c>
+      <c r="D20" s="7">
+        <v>6.5129999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>567.04999999999995</v>
+      </c>
+      <c r="B21" s="5">
+        <v>62.238999999999997</v>
+      </c>
+      <c r="C21" s="6">
+        <v>110.31399999999999</v>
+      </c>
+      <c r="D21" s="7">
+        <v>6.4180000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>575.63300000000004</v>
+      </c>
+      <c r="B22" s="5">
+        <v>66.430999999999997</v>
+      </c>
+      <c r="C22" s="6">
+        <v>115.702</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6.3159999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>583.67399999999998</v>
+      </c>
+      <c r="B23" s="5">
+        <v>60.414999999999999</v>
+      </c>
+      <c r="C23" s="6">
+        <v>104.145</v>
+      </c>
+      <c r="D23" s="7">
+        <v>6.2069999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>591.44200000000001</v>
+      </c>
+      <c r="B24" s="5">
+        <v>59.433999999999997</v>
+      </c>
+      <c r="C24" s="6">
+        <v>100.91</v>
+      </c>
+      <c r="D24" s="7">
+        <v>6.0910000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>598.39</v>
+      </c>
+      <c r="B25" s="5">
+        <v>58.563000000000002</v>
+      </c>
+      <c r="C25" s="6">
+        <v>98.224000000000004</v>
+      </c>
+      <c r="D25" s="7">
+        <v>5.968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>604.72900000000004</v>
+      </c>
+      <c r="B26" s="5">
+        <v>57.728999999999999</v>
+      </c>
+      <c r="C26" s="6">
+        <v>95.772000000000006</v>
+      </c>
+      <c r="D26" s="7">
+        <v>5.8410000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>610.14400000000001</v>
+      </c>
+      <c r="B27" s="5">
+        <v>56.926000000000002</v>
+      </c>
+      <c r="C27" s="6">
+        <v>93.555000000000007</v>
+      </c>
+      <c r="D27" s="7">
+        <v>5.7089999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>616.447</v>
+      </c>
+      <c r="B28" s="5">
+        <v>56.264000000000003</v>
+      </c>
+      <c r="C28" s="6">
+        <v>91.555999999999997</v>
+      </c>
+      <c r="D28" s="7">
+        <v>5.5750000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>622.42200000000003</v>
+      </c>
+      <c r="B29" s="5">
+        <v>55.604999999999997</v>
+      </c>
+      <c r="C29" s="6">
+        <v>89.6</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>628.08299999999997</v>
+      </c>
+      <c r="B30" s="5">
+        <v>54.816000000000003</v>
+      </c>
+      <c r="C30" s="6">
+        <v>87.515000000000001</v>
+      </c>
+      <c r="D30" s="7">
+        <v>5.3049999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>634.26900000000001</v>
+      </c>
+      <c r="B31" s="5">
+        <v>53.936</v>
+      </c>
+      <c r="C31" s="6">
+        <v>85.292000000000002</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5.1710000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>639.4</v>
+      </c>
+      <c r="B32" s="5">
+        <v>52.906999999999996</v>
+      </c>
+      <c r="C32" s="6">
+        <v>82.953000000000003</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5.0410000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>644.90700000000004</v>
+      </c>
+      <c r="B33" s="5">
+        <v>51.755000000000003</v>
+      </c>
+      <c r="C33" s="6">
+        <v>80.465999999999994</v>
+      </c>
+      <c r="D33" s="7">
+        <v>4.915</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>651.13</v>
+      </c>
+      <c r="B34" s="5">
+        <v>50.677</v>
+      </c>
+      <c r="C34" s="6">
+        <v>78.057000000000002</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4.7949999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>658.24300000000005</v>
+      </c>
+      <c r="B35" s="5">
+        <v>49.466000000000001</v>
+      </c>
+      <c r="C35" s="6">
+        <v>75.347999999999999</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>664.827</v>
+      </c>
+      <c r="B36" s="5">
+        <v>48.274999999999999</v>
+      </c>
+      <c r="C36" s="6">
+        <v>72.744</v>
+      </c>
+      <c r="D36" s="7">
+        <v>4.5679999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>671.702</v>
+      </c>
+      <c r="B37" s="5">
+        <v>47.091000000000001</v>
+      </c>
+      <c r="C37" s="6">
+        <v>70.22</v>
+      </c>
+      <c r="D37" s="7">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>677.30499999999995</v>
+      </c>
+      <c r="B38" s="5">
+        <v>45.811</v>
+      </c>
+      <c r="C38" s="6">
+        <v>67.704999999999998</v>
+      </c>
+      <c r="D38" s="7">
+        <v>4.3540000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>680.62300000000005</v>
+      </c>
+      <c r="B39" s="5">
+        <v>44.289000000000001</v>
+      </c>
+      <c r="C39" s="6">
+        <v>65.082999999999998</v>
+      </c>
+      <c r="D39" s="7">
+        <v>4.2469999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>684.25</v>
+      </c>
+      <c r="B40" s="5">
+        <v>42.594999999999999</v>
+      </c>
+      <c r="C40" s="6">
+        <v>62.277000000000001</v>
+      </c>
+      <c r="D40" s="7">
+        <v>4.1379999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>684.41700000000003</v>
+      </c>
+      <c r="B41" s="5">
+        <v>40.665999999999997</v>
+      </c>
+      <c r="C41" s="6">
+        <v>59.366999999999997</v>
+      </c>
+      <c r="D41" s="7">
+        <v>4.0259999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>683.72900000000004</v>
+      </c>
+      <c r="B42" s="5">
+        <v>38.625</v>
+      </c>
+      <c r="C42" s="6">
+        <v>56.433999999999997</v>
+      </c>
+      <c r="D42" s="7">
+        <v>3.9119999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>681.85199999999998</v>
+      </c>
+      <c r="B43" s="5">
+        <v>36.686999999999998</v>
+      </c>
+      <c r="C43" s="6">
+        <v>53.73</v>
+      </c>
+      <c r="D43" s="7">
+        <v>3.794</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>675.71500000000003</v>
+      </c>
+      <c r="B44" s="5">
+        <v>34.159999999999997</v>
+      </c>
+      <c r="C44" s="6">
+        <v>50.433</v>
+      </c>
+      <c r="D44" s="7">
+        <v>3.673</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>670.62300000000005</v>
+      </c>
+      <c r="B45" s="5">
+        <v>31.890999999999998</v>
+      </c>
+      <c r="C45" s="6">
+        <v>47.459000000000003</v>
+      </c>
+      <c r="D45" s="7">
+        <v>3.552</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>664.66399999999999</v>
+      </c>
+      <c r="B46" s="5">
+        <v>29.657</v>
+      </c>
+      <c r="C46" s="6">
+        <v>44.524000000000001</v>
+      </c>
+      <c r="D46" s="7">
+        <v>3.4319999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>658.45100000000002</v>
+      </c>
+      <c r="B47" s="5">
+        <v>27.510999999999999</v>
+      </c>
+      <c r="C47" s="6">
+        <v>41.688000000000002</v>
+      </c>
+      <c r="D47" s="7">
+        <v>3.3149999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>652.14800000000002</v>
+      </c>
+      <c r="B48" s="5">
+        <v>25.484999999999999</v>
+      </c>
+      <c r="C48" s="6">
+        <v>38.997</v>
+      </c>
+      <c r="D48" s="7">
+        <v>3.2029999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>646.05399999999997</v>
+      </c>
+      <c r="B49" s="5">
+        <v>23.606999999999999</v>
+      </c>
+      <c r="C49" s="6">
+        <v>36.47</v>
+      </c>
+      <c r="D49" s="7">
+        <v>3.0990000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>640.41700000000003</v>
+      </c>
+      <c r="B50" s="5">
+        <v>21.864999999999998</v>
+      </c>
+      <c r="C50" s="6">
+        <v>34.082999999999998</v>
+      </c>
+      <c r="D50" s="7">
+        <v>3.0019999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>636.06399999999996</v>
+      </c>
+      <c r="B51" s="5">
+        <v>20.161000000000001</v>
+      </c>
+      <c r="C51" s="6">
+        <v>31.657</v>
+      </c>
+      <c r="D51" s="7">
+        <v>2.9169999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>633.322</v>
+      </c>
+      <c r="B52" s="5">
+        <v>18.344999999999999</v>
+      </c>
+      <c r="C52" s="6">
+        <v>28.945</v>
+      </c>
+      <c r="D52" s="7">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>620.23199999999997</v>
+      </c>
+      <c r="B53" s="5">
+        <v>16.745999999999999</v>
+      </c>
+      <c r="C53" s="6">
+        <v>26.920999999999999</v>
+      </c>
+      <c r="D53" s="7">
+        <v>2.7440000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>616.26099999999997</v>
+      </c>
+      <c r="B54" s="5">
+        <v>15.486000000000001</v>
+      </c>
+      <c r="C54" s="6">
+        <v>25.108000000000001</v>
+      </c>
+      <c r="D54" s="7">
+        <v>2.6930000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>615.50800000000004</v>
+      </c>
+      <c r="B55" s="5">
+        <v>14.444000000000001</v>
+      </c>
+      <c r="C55" s="6">
+        <v>23.463000000000001</v>
+      </c>
+      <c r="D55" s="7">
+        <v>2.661</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>623.67399999999998</v>
+      </c>
+      <c r="B56" s="5">
+        <v>13.696</v>
+      </c>
+      <c r="C56" s="6">
+        <v>21.995999999999999</v>
+      </c>
+      <c r="D56" s="7">
+        <v>2.673</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>631.197</v>
+      </c>
+      <c r="B57" s="5">
+        <v>13.031000000000001</v>
+      </c>
+      <c r="C57" s="6">
+        <v>20.677</v>
+      </c>
+      <c r="D57" s="7">
+        <v>2.6859999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>634.80100000000004</v>
+      </c>
+      <c r="B58" s="5">
+        <v>12.355</v>
+      </c>
+      <c r="C58" s="6">
+        <v>19.481999999999999</v>
+      </c>
+      <c r="D58" s="7">
+        <v>2.6859999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>632.56299999999999</v>
+      </c>
+      <c r="B59" s="5">
+        <v>11.657</v>
+      </c>
+      <c r="C59" s="6">
+        <v>18.428000000000001</v>
+      </c>
+      <c r="D59" s="7">
+        <v>2.6659999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>626.30100000000004</v>
+      </c>
+      <c r="B60" s="5">
+        <v>10.904999999999999</v>
+      </c>
+      <c r="C60" s="6">
+        <v>17.399000000000001</v>
+      </c>
+      <c r="D60" s="7">
+        <v>2.6280000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>623.63499999999999</v>
+      </c>
+      <c r="B61" s="5">
+        <v>10.298</v>
+      </c>
+      <c r="C61" s="6">
+        <v>16.510999999999999</v>
+      </c>
+      <c r="D61" s="7">
+        <v>2.6070000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>617.63199999999995</v>
+      </c>
+      <c r="B62" s="5">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="C62" s="6">
+        <v>15.725</v>
+      </c>
+      <c r="D62" s="7">
+        <v>2.573</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>613.17999999999995</v>
+      </c>
+      <c r="B63" s="5">
+        <v>9.1690000000000005</v>
+      </c>
+      <c r="C63" s="6">
+        <v>14.945</v>
+      </c>
+      <c r="D63" s="7">
+        <v>2.5419999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>602.81299999999999</v>
+      </c>
+      <c r="B64" s="5">
+        <v>8.6340000000000003</v>
+      </c>
+      <c r="C64" s="6">
+        <v>14.295999999999999</v>
+      </c>
+      <c r="D64" s="7">
+        <v>2.4870000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>592.93799999999999</v>
+      </c>
+      <c r="B65" s="5">
+        <v>8.1270000000000007</v>
+      </c>
+      <c r="C65" s="6">
+        <v>13.680999999999999</v>
+      </c>
+      <c r="D65" s="7">
+        <v>2.4319999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>584.69899999999996</v>
+      </c>
+      <c r="B66" s="5">
+        <v>7.6719999999999997</v>
+      </c>
+      <c r="C66" s="6">
+        <v>13.102</v>
+      </c>
+      <c r="D66" s="7">
+        <v>2.3849999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>577.56799999999998</v>
+      </c>
+      <c r="B67" s="5">
+        <v>7.266</v>
+      </c>
+      <c r="C67" s="6">
+        <v>12.563000000000001</v>
+      </c>
+      <c r="D67" s="7">
+        <v>2.3380000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>575.20799999999997</v>
+      </c>
+      <c r="B68" s="5">
+        <v>6.9390000000000001</v>
+      </c>
+      <c r="C68" s="6">
+        <v>12.058</v>
+      </c>
+      <c r="D68" s="7">
+        <v>2.306</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>576.46100000000001</v>
+      </c>
+      <c r="B69" s="5">
+        <v>6.7089999999999996</v>
+      </c>
+      <c r="C69" s="6">
+        <v>11.641</v>
+      </c>
+      <c r="D69" s="7">
+        <v>2.2810000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>579.697</v>
+      </c>
+      <c r="B70" s="5">
+        <v>6.4459999999999997</v>
+      </c>
+      <c r="C70" s="6">
+        <v>11.124000000000001</v>
+      </c>
+      <c r="D70" s="7">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>591.02499999999998</v>
+      </c>
+      <c r="B71" s="5">
+        <v>6.3310000000000004</v>
+      </c>
+      <c r="C71" s="6">
+        <v>10.726000000000001</v>
+      </c>
+      <c r="D71" s="7">
+        <v>2.242</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>593.20699999999999</v>
+      </c>
+      <c r="B72" s="5">
+        <v>6.1239999999999997</v>
+      </c>
+      <c r="C72" s="6">
+        <v>10.324</v>
+      </c>
+      <c r="D72" s="7">
+        <v>2.2160000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>593.52300000000002</v>
+      </c>
+      <c r="B73" s="5">
+        <v>5.9249999999999998</v>
+      </c>
+      <c r="C73" s="6">
+        <v>9.98</v>
+      </c>
+      <c r="D73" s="7">
+        <v>2.1920000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B447B991-0481-47F0-AE32-ABD1CBF7EF96}">
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection sqref="A1:B73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>45.185000000000002</v>
+      </c>
+      <c r="B2" s="17">
+        <v>47.316000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>45.331000000000003</v>
+      </c>
+      <c r="B3" s="17">
+        <v>47.576999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>45.594000000000001</v>
+      </c>
+      <c r="B4" s="17">
+        <v>47.835999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>45.923999999999999</v>
+      </c>
+      <c r="B5" s="17">
+        <v>48.110999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>46.311999999999998</v>
+      </c>
+      <c r="B6" s="17">
+        <v>48.438000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>46.738</v>
+      </c>
+      <c r="B7" s="17">
+        <v>48.841000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>47.201000000000001</v>
+      </c>
+      <c r="B8" s="17">
+        <v>49.322000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>47.7</v>
+      </c>
+      <c r="B9" s="17">
+        <v>49.866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>48.23</v>
+      </c>
+      <c r="B10" s="17">
+        <v>50.447000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>48.796999999999997</v>
+      </c>
+      <c r="B11" s="17">
+        <v>51.058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>49.371000000000002</v>
+      </c>
+      <c r="B12" s="17">
+        <v>51.646000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>49.97</v>
+      </c>
+      <c r="B13" s="17">
+        <v>52.238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>50.244</v>
+      </c>
+      <c r="B14" s="17">
+        <v>52.401000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>51.103000000000002</v>
+      </c>
+      <c r="B15" s="17">
+        <v>53.325000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>51.625</v>
+      </c>
+      <c r="B16" s="17">
+        <v>53.837000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>52.06</v>
+      </c>
+      <c r="B17" s="17">
+        <v>54.335999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>52.576999999999998</v>
+      </c>
+      <c r="B18" s="17">
+        <v>54.850999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>53.061999999999998</v>
+      </c>
+      <c r="B19" s="17">
+        <v>55.417999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>53.536000000000001</v>
+      </c>
+      <c r="B20" s="17">
+        <v>55.996000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>53.987000000000002</v>
+      </c>
+      <c r="B21" s="17">
+        <v>56.567999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>46.816000000000003</v>
+      </c>
+      <c r="B22" s="17">
+        <v>47.506999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>54.762</v>
+      </c>
+      <c r="B23" s="17">
+        <v>57.625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>55.25</v>
+      </c>
+      <c r="B24" s="17">
+        <v>58.295999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>55.530999999999999</v>
+      </c>
+      <c r="B25" s="17">
+        <v>58.719000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>55.857999999999997</v>
+      </c>
+      <c r="B26" s="17">
+        <v>59.198999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>56.209000000000003</v>
+      </c>
+      <c r="B27" s="17">
+        <v>59.701000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>56.512</v>
+      </c>
+      <c r="B28" s="17">
+        <v>60.13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <v>56.802</v>
+      </c>
+      <c r="B29" s="17">
+        <v>60.55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>57.088000000000001</v>
+      </c>
+      <c r="B30" s="17">
+        <v>60.985999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>57.335999999999999</v>
+      </c>
+      <c r="B31" s="17">
+        <v>61.411000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <v>57.521000000000001</v>
+      </c>
+      <c r="B32" s="17">
+        <v>61.814999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <v>57.661000000000001</v>
+      </c>
+      <c r="B33" s="17">
+        <v>62.207999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>57.658000000000001</v>
+      </c>
+      <c r="B34" s="17">
+        <v>62.573</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <v>57.552999999999997</v>
+      </c>
+      <c r="B35" s="17">
+        <v>63.002000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <v>57.607999999999997</v>
+      </c>
+      <c r="B36" s="17">
+        <v>63.595999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>58.578000000000003</v>
+      </c>
+      <c r="B37" s="17">
+        <v>64.245000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>59.302999999999997</v>
+      </c>
+      <c r="B38" s="17">
+        <v>64.977999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>60.069000000000003</v>
+      </c>
+      <c r="B39" s="17">
+        <v>65.766000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <v>60.863</v>
+      </c>
+      <c r="B40" s="17">
+        <v>66.555999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
+        <v>61.576999999999998</v>
+      </c>
+      <c r="B41" s="17">
+        <v>67.34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
+        <v>62.427999999999997</v>
+      </c>
+      <c r="B42" s="17">
+        <v>67.971999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
+        <v>62.843000000000004</v>
+      </c>
+      <c r="B43" s="17">
+        <v>68.197000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
+        <v>63.539000000000001</v>
+      </c>
+      <c r="B44" s="17">
+        <v>68.926000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <v>64.150999999999996</v>
+      </c>
+      <c r="B45" s="17">
+        <v>69.361000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
+        <v>64.775000000000006</v>
+      </c>
+      <c r="B46" s="17">
+        <v>69.81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
+        <v>65.176000000000002</v>
+      </c>
+      <c r="B47" s="17">
+        <v>70.253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
+        <v>65.683999999999997</v>
+      </c>
+      <c r="B48" s="17">
+        <v>70.751999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>66.138000000000005</v>
+      </c>
+      <c r="B49" s="17">
+        <v>71.210999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
+        <v>66.623000000000005</v>
+      </c>
+      <c r="B50" s="17">
+        <v>71.673000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
+        <v>67.298000000000002</v>
+      </c>
+      <c r="B51" s="17">
+        <v>72.308999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
+        <v>68.03</v>
+      </c>
+      <c r="B52" s="17">
+        <v>72.930000000000007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <v>68.757999999999996</v>
+      </c>
+      <c r="B53" s="17">
+        <v>73.423000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <v>69.495999999999995</v>
+      </c>
+      <c r="B54" s="17">
+        <v>73.915999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <v>70.16</v>
+      </c>
+      <c r="B55" s="17">
+        <v>74.361000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <v>70.688999999999993</v>
+      </c>
+      <c r="B56" s="17">
+        <v>74.736999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
+        <v>71.052999999999997</v>
+      </c>
+      <c r="B57" s="17">
+        <v>75.015000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="17">
+        <v>71.242999999999995</v>
+      </c>
+      <c r="B58" s="17">
+        <v>75.209000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
+        <v>71.272000000000006</v>
+      </c>
+      <c r="B59" s="17">
+        <v>75.296000000000006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="17">
+        <v>71.382999999999996</v>
+      </c>
+      <c r="B60" s="17">
+        <v>75.509</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="17">
+        <v>71.397999999999996</v>
+      </c>
+      <c r="B61" s="17">
+        <v>75.673000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="17">
+        <v>71.623000000000005</v>
+      </c>
+      <c r="B62" s="17">
+        <v>75.930000000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="17">
+        <v>72.085999999999999</v>
+      </c>
+      <c r="B63" s="17">
+        <v>76.298000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="17">
+        <v>72.513000000000005</v>
+      </c>
+      <c r="B64" s="17">
+        <v>76.683000000000007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="17">
+        <v>72.947999999999993</v>
+      </c>
+      <c r="B65" s="17">
+        <v>77.082999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="17">
+        <v>73.320999999999998</v>
+      </c>
+      <c r="B66" s="17">
+        <v>77.432000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="17">
+        <v>73.576999999999998</v>
+      </c>
+      <c r="B67" s="17">
+        <v>77.742999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="17">
+        <v>73.697000000000003</v>
+      </c>
+      <c r="B68" s="17">
+        <v>77.953000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="17">
+        <v>73.728999999999999</v>
+      </c>
+      <c r="B69" s="17">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="17">
+        <v>73.8</v>
+      </c>
+      <c r="B70" s="17">
+        <v>78.293000000000006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="17">
+        <v>73.903999999999996</v>
+      </c>
+      <c r="B71" s="17">
+        <v>78.497</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="17">
+        <v>70.808000000000007</v>
+      </c>
+      <c r="B72" s="17">
+        <v>76.816000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="17">
+        <v>70.120999999999995</v>
+      </c>
+      <c r="B73" s="17">
+        <v>74.745999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F341D5C-60C8-4AD6-A9D6-22E7FEFFBFF5}">
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection sqref="A1:B73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>5.9989999999999997</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2.8069999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>6.1689999999999996</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2.8039999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>6.3440000000000003</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2.7890000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>6.5229999999999997</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2.7490000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>6.7050000000000001</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2.7770000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6.8949999999999996</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2.7949999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7.0910000000000002</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2.8170000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7.2939999999999996</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2.8290000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>7.5010000000000003</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2.782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>7.718</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2.8980000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>7.9470000000000001</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2.9470000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>8.1850000000000005</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2.9780000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>8.4309999999999992</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2.9279999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>8.6809999999999992</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2.927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>8.9390000000000001</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>9.2040000000000006</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2.9239999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>9.4740000000000002</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2.8719999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>9.7509999999999994</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2.8759999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>10.032999999999999</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2.8370000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>10.323</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2.851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>10.595000000000001</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2.3639999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>10.868</v>
+      </c>
+      <c r="B23" s="7">
+        <v>2.722</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>11.164999999999999</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2.6749999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>11.464</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2.6059999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>11.763</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>12.063000000000001</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2.5009999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>12.364000000000001</v>
+      </c>
+      <c r="B28" s="7">
+        <v>2.4289999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>12.675000000000001</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2.5350000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>12.997999999999999</v>
+      </c>
+      <c r="B30" s="7">
+        <v>2.504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>13.327</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2.4910000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>13.664999999999999</v>
+      </c>
+      <c r="B32" s="7">
+        <v>2.524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>14.009</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2.444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>14.353999999999999</v>
+      </c>
+      <c r="B34" s="7">
+        <v>2.4260000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>14.708</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>15.066000000000001</v>
+      </c>
+      <c r="B36" s="7">
+        <v>2.3759999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>15.426</v>
+      </c>
+      <c r="B37" s="7">
+        <v>2.3490000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>15.787000000000001</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2.2759999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>16.148</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2.254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>16.516999999999999</v>
+      </c>
+      <c r="B40" s="7">
+        <v>2.2650000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>16.893000000000001</v>
+      </c>
+      <c r="B41" s="7">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>17.271999999999998</v>
+      </c>
+      <c r="B42" s="7">
+        <v>2.2050000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>17.641999999999999</v>
+      </c>
+      <c r="B43" s="7">
+        <v>2.0390000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>18.004000000000001</v>
+      </c>
+      <c r="B44" s="7">
+        <v>2.0310000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>18.369</v>
+      </c>
+      <c r="B45" s="7">
+        <v>1.978</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>18.736000000000001</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1.9750000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="B47" s="7">
+        <v>1.873</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>19.457999999999998</v>
+      </c>
+      <c r="B48" s="7">
+        <v>1.841</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>19.815000000000001</v>
+      </c>
+      <c r="B49" s="7">
+        <v>1.804</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>20.169</v>
+      </c>
+      <c r="B50" s="7">
+        <v>1.7350000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>20.507999999999999</v>
+      </c>
+      <c r="B51" s="7">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>20.821999999999999</v>
+      </c>
+      <c r="B52" s="7">
+        <v>1.4419999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>21.103999999999999</v>
+      </c>
+      <c r="B53" s="7">
+        <v>1.246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>21.353999999999999</v>
+      </c>
+      <c r="B54" s="7">
+        <v>1.107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>21.579000000000001</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>21.791</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>21.989000000000001</v>
+      </c>
+      <c r="B57" s="7">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>22.170999999999999</v>
+      </c>
+      <c r="B58" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>22.343</v>
+      </c>
+      <c r="B59" s="7">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>22.503</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0.69399999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>22.661999999999999</v>
+      </c>
+      <c r="B61" s="7">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>22.834</v>
+      </c>
+      <c r="B62" s="7">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>23.027999999999999</v>
+      </c>
+      <c r="B63" s="7">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>23.24</v>
+      </c>
+      <c r="B64" s="7">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>23.466000000000001</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>23.712</v>
+      </c>
+      <c r="B66" s="7">
+        <v>1.099</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>23.992000000000001</v>
+      </c>
+      <c r="B67" s="7">
+        <v>1.2450000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>24.321000000000002</v>
+      </c>
+      <c r="B68" s="7">
+        <v>1.476</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>24.69</v>
+      </c>
+      <c r="B69" s="7">
+        <v>1.5369999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>25.158000000000001</v>
+      </c>
+      <c r="B70" s="7">
+        <v>2.2080000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>25.643000000000001</v>
+      </c>
+      <c r="B71" s="7">
+        <v>1.617</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>26.018000000000001</v>
+      </c>
+      <c r="B72" s="7">
+        <v>1.288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>26.338000000000001</v>
+      </c>
+      <c r="B73" s="7">
+        <v>1.1639999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951F57E1-652C-4BB6-9A94-F20D3297749D}">
+  <dimension ref="A1:D73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>369.88299999999998</v>
+      </c>
+      <c r="B2" s="5">
+        <v>155.279</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7571.1859999999997</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>380.036</v>
+      </c>
+      <c r="B3" s="5">
+        <v>159.02699999999999</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7786.7489999999998</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>390.71899999999999</v>
+      </c>
+      <c r="B4" s="5">
+        <v>162.268</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8008.2150000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>401.51299999999998</v>
+      </c>
+      <c r="B5" s="5">
+        <v>165.21199999999999</v>
+      </c>
+      <c r="C5" s="5">
+        <v>8234.7039999999997</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>411.89499999999998</v>
+      </c>
+      <c r="B6" s="5">
+        <v>167.70500000000001</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8464.2279999999992</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>422.74299999999999</v>
+      </c>
+      <c r="B7" s="5">
+        <v>169.82400000000001</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8702.5709999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>433.798</v>
+      </c>
+      <c r="B8" s="5">
+        <v>171.56</v>
+      </c>
+      <c r="C8" s="5">
+        <v>8949.223</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>444.61099999999999</v>
+      </c>
+      <c r="B9" s="5">
+        <v>172.90600000000001</v>
+      </c>
+      <c r="C9" s="5">
+        <v>9204.8719999999994</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>455.81</v>
+      </c>
+      <c r="B10" s="5">
+        <v>173.97300000000001</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9468.9490000000005</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>465.983</v>
+      </c>
+      <c r="B11" s="5">
+        <v>174.613</v>
+      </c>
+      <c r="C11" s="5">
+        <v>9736.0660000000007</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>477.05200000000002</v>
+      </c>
+      <c r="B12" s="5">
+        <v>175.30799999999999</v>
+      </c>
+      <c r="C12" s="5">
+        <v>10022.346</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>488.32499999999999</v>
+      </c>
+      <c r="B13" s="5">
+        <v>175.88499999999999</v>
+      </c>
+      <c r="C13" s="5">
+        <v>10322.066999999999</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>498.964</v>
+      </c>
+      <c r="B14" s="5">
+        <v>178.67099999999999</v>
+      </c>
+      <c r="C14" s="5">
+        <v>10634.126</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>509.07299999999998</v>
+      </c>
+      <c r="B15" s="5">
+        <v>178.571</v>
+      </c>
+      <c r="C15" s="5">
+        <v>10950.063</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>519.63400000000001</v>
+      </c>
+      <c r="B16" s="5">
+        <v>180.648</v>
+      </c>
+      <c r="C16" s="5">
+        <v>11275.267</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>529.46699999999998</v>
+      </c>
+      <c r="B17" s="5">
+        <v>182.66900000000001</v>
+      </c>
+      <c r="C17" s="5">
+        <v>11609.334999999999</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>539.19500000000005</v>
+      </c>
+      <c r="B18" s="5">
+        <v>184.01900000000001</v>
+      </c>
+      <c r="C18" s="5">
+        <v>11953.825999999999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>549.41300000000001</v>
+      </c>
+      <c r="B19" s="5">
+        <v>185.04</v>
+      </c>
+      <c r="C19" s="5">
+        <v>12302.154</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>557.72299999999996</v>
+      </c>
+      <c r="B20" s="5">
+        <v>185.74700000000001</v>
+      </c>
+      <c r="C20" s="5">
+        <v>12661.097</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>567.04999999999995</v>
+      </c>
+      <c r="B21" s="5">
+        <v>186.32</v>
+      </c>
+      <c r="C21" s="5">
+        <v>13025.401</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>575.63300000000004</v>
+      </c>
+      <c r="B22" s="5">
+        <v>254.39699999999999</v>
+      </c>
+      <c r="C22" s="5">
+        <v>13402.078</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>583.67399999999998</v>
+      </c>
+      <c r="B23" s="5">
+        <v>184.876</v>
+      </c>
+      <c r="C23" s="5">
+        <v>13722.663</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>591.44200000000001</v>
+      </c>
+      <c r="B24" s="5">
+        <v>184.98500000000001</v>
+      </c>
+      <c r="C24" s="5">
+        <v>14101.272000000001</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>598.39</v>
+      </c>
+      <c r="B25" s="5">
+        <v>187.80500000000001</v>
+      </c>
+      <c r="C25" s="5">
+        <v>14483.602000000001</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>604.72900000000004</v>
+      </c>
+      <c r="B26" s="5">
+        <v>188.80500000000001</v>
+      </c>
+      <c r="C26" s="5">
+        <v>14865.968999999999</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>610.14400000000001</v>
+      </c>
+      <c r="B27" s="5">
+        <v>189.49600000000001</v>
+      </c>
+      <c r="C27" s="5">
+        <v>15248.382</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>616.447</v>
+      </c>
+      <c r="B28" s="5">
+        <v>190.39</v>
+      </c>
+      <c r="C28" s="5">
+        <v>15634.612999999999</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>622.42200000000003</v>
+      </c>
+      <c r="B29" s="5">
+        <v>191.09299999999999</v>
+      </c>
+      <c r="C29" s="5">
+        <v>16019.013000000001</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>628.08299999999997</v>
+      </c>
+      <c r="B30" s="5">
+        <v>191.62</v>
+      </c>
+      <c r="C30" s="5">
+        <v>16430.214</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>634.26900000000001</v>
+      </c>
+      <c r="B31" s="5">
+        <v>192.22499999999999</v>
+      </c>
+      <c r="C31" s="5">
+        <v>16846.744999999999</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>639.4</v>
+      </c>
+      <c r="B32" s="5">
+        <v>193.03299999999999</v>
+      </c>
+      <c r="C32" s="5">
+        <v>17271.626</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>644.90700000000004</v>
+      </c>
+      <c r="B33" s="5">
+        <v>191.57400000000001</v>
+      </c>
+      <c r="C33" s="5">
+        <v>17713.185000000001</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>651.13</v>
+      </c>
+      <c r="B34" s="5">
+        <v>191.12799999999999</v>
+      </c>
+      <c r="C34" s="5">
+        <v>18151.504000000001</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>658.24300000000005</v>
+      </c>
+      <c r="B35" s="5">
+        <v>191.06700000000001</v>
+      </c>
+      <c r="C35" s="5">
+        <v>18597.239000000001</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>664.827</v>
+      </c>
+      <c r="B36" s="5">
+        <v>189.816</v>
+      </c>
+      <c r="C36" s="5">
+        <v>19056.572</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>671.702</v>
+      </c>
+      <c r="B37" s="5">
+        <v>184.33500000000001</v>
+      </c>
+      <c r="C37" s="5">
+        <v>19514.721000000001</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>677.30499999999995</v>
+      </c>
+      <c r="B38" s="5">
+        <v>179.56</v>
+      </c>
+      <c r="C38" s="5">
+        <v>19978.5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>680.62300000000005</v>
+      </c>
+      <c r="B39" s="5">
+        <v>174.36</v>
+      </c>
+      <c r="C39" s="5">
+        <v>20438.374</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>684.25</v>
+      </c>
+      <c r="B40" s="5">
+        <v>169.227</v>
+      </c>
+      <c r="C40" s="5">
+        <v>20904.347000000002</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>684.41700000000003</v>
+      </c>
+      <c r="B41" s="5">
+        <v>164.636</v>
+      </c>
+      <c r="C41" s="5">
+        <v>21383.251</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>683.72900000000004</v>
+      </c>
+      <c r="B42" s="5">
+        <v>160.27699999999999</v>
+      </c>
+      <c r="C42" s="5">
+        <v>21865.370999999999</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>681.85199999999998</v>
+      </c>
+      <c r="B43" s="5">
+        <v>159.84100000000001</v>
+      </c>
+      <c r="C43" s="5">
+        <v>22352.826000000001</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>675.71500000000003</v>
+      </c>
+      <c r="B44" s="5">
+        <v>155.809</v>
+      </c>
+      <c r="C44" s="5">
+        <v>22813.187000000002</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>670.62300000000005</v>
+      </c>
+      <c r="B45" s="5">
+        <v>153.751</v>
+      </c>
+      <c r="C45" s="5">
+        <v>23281.308000000001</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>664.66399999999999</v>
+      </c>
+      <c r="B46" s="5">
+        <v>151.77000000000001</v>
+      </c>
+      <c r="C46" s="5">
+        <v>23746.456999999999</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>658.45100000000002</v>
+      </c>
+      <c r="B47" s="5">
+        <v>154.011</v>
+      </c>
+      <c r="C47" s="5">
+        <v>24220.06</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>652.14800000000002</v>
+      </c>
+      <c r="B48" s="5">
+        <v>154.94900000000001</v>
+      </c>
+      <c r="C48" s="5">
+        <v>24678.050999999999</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>646.05399999999997</v>
+      </c>
+      <c r="B49" s="5">
+        <v>155.93</v>
+      </c>
+      <c r="C49" s="5">
+        <v>25136.556</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>640.41700000000003</v>
+      </c>
+      <c r="B50" s="5">
+        <v>156.45699999999999</v>
+      </c>
+      <c r="C50" s="5">
+        <v>25594.216</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>636.06399999999996</v>
+      </c>
+      <c r="B51" s="5">
+        <v>155.16999999999999</v>
+      </c>
+      <c r="C51" s="5">
+        <v>26042.236000000001</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>633.322</v>
+      </c>
+      <c r="B52" s="5">
+        <v>154.375</v>
+      </c>
+      <c r="C52" s="5">
+        <v>26462.242999999999</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>620.23199999999997</v>
+      </c>
+      <c r="B53" s="5">
+        <v>154.86799999999999</v>
+      </c>
+      <c r="C53" s="5">
+        <v>26846.634999999998</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>616.26099999999997</v>
+      </c>
+      <c r="B54" s="5">
+        <v>156.44499999999999</v>
+      </c>
+      <c r="C54" s="5">
+        <v>27183.182000000001</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>615.50800000000004</v>
+      </c>
+      <c r="B55" s="5">
+        <v>159.27600000000001</v>
+      </c>
+      <c r="C55" s="5">
+        <v>27485.824000000001</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>623.67399999999998</v>
+      </c>
+      <c r="B56" s="5">
+        <v>163.43899999999999</v>
+      </c>
+      <c r="C56" s="5">
+        <v>27760.859</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>631.197</v>
+      </c>
+      <c r="B57" s="5">
+        <v>169.011</v>
+      </c>
+      <c r="C57" s="5">
+        <v>28026.964</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>634.80100000000004</v>
+      </c>
+      <c r="B58" s="5">
+        <v>176.04300000000001</v>
+      </c>
+      <c r="C58" s="5">
+        <v>28267.57</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>632.56299999999999</v>
+      </c>
+      <c r="B59" s="5">
+        <v>184.25800000000001</v>
+      </c>
+      <c r="C59" s="5">
+        <v>28494.587</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>626.30100000000004</v>
+      </c>
+      <c r="B60" s="5">
+        <v>191.04499999999999</v>
+      </c>
+      <c r="C60" s="5">
+        <v>28706.187000000002</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>623.63499999999999</v>
+      </c>
+      <c r="B61" s="5">
+        <v>198.041</v>
+      </c>
+      <c r="C61" s="5">
+        <v>28906.183000000001</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>617.63199999999995</v>
+      </c>
+      <c r="B62" s="5">
+        <v>202.14400000000001</v>
+      </c>
+      <c r="C62" s="5">
+        <v>29112.47</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>613.17999999999995</v>
+      </c>
+      <c r="B63" s="5">
+        <v>202.82300000000001</v>
+      </c>
+      <c r="C63" s="5">
+        <v>29346.673999999999</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>602.81299999999999</v>
+      </c>
+      <c r="B64" s="5">
+        <v>202.404</v>
+      </c>
+      <c r="C64" s="5">
+        <v>29608.769</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>592.93799999999999</v>
+      </c>
+      <c r="B65" s="5">
+        <v>200.988</v>
+      </c>
+      <c r="C65" s="5">
+        <v>29890.409</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>584.69899999999996</v>
+      </c>
+      <c r="B66" s="5">
+        <v>200.83799999999999</v>
+      </c>
+      <c r="C66" s="5">
+        <v>30187.208999999999</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>577.56799999999998</v>
+      </c>
+      <c r="B67" s="5">
+        <v>197.69200000000001</v>
+      </c>
+      <c r="C67" s="5">
+        <v>30520.694</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>575.20799999999997</v>
+      </c>
+      <c r="B68" s="5">
+        <v>196.43199999999999</v>
+      </c>
+      <c r="C68" s="5">
+        <v>30903.031999999999</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>576.46100000000001</v>
+      </c>
+      <c r="B69" s="5">
+        <v>194.79</v>
+      </c>
+      <c r="C69" s="5">
+        <v>31362.525000000001</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>579.697</v>
+      </c>
+      <c r="B70" s="5">
+        <v>195.53800000000001</v>
+      </c>
+      <c r="C70" s="5">
+        <v>31848.448</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>591.02499999999998</v>
+      </c>
+      <c r="B71" s="5">
+        <v>196.738</v>
+      </c>
+      <c r="C71" s="5">
+        <v>32559.439999999999</v>
+      </c>
+      <c r="D71" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>593.20699999999999</v>
+      </c>
+      <c r="B72" s="5">
+        <v>243.71700000000001</v>
+      </c>
+      <c r="C72" s="5">
+        <v>33090.281000000003</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>593.52300000000002</v>
+      </c>
+      <c r="B73" s="5">
+        <v>269.05</v>
+      </c>
+      <c r="C73" s="5">
+        <v>33519.231</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>